--- a/processed_data/population_density_avg_sale_corr.xlsx
+++ b/processed_data/population_density_avg_sale_corr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="population_density_by_province" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>Colombo House</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Correlation</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Population Density Area</t>
   </si>
 </sst>
 </file>
@@ -433,7 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1172,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,8 +1191,14 @@
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
       </c>
     </row>
